--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/App-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/App-Cav1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>104.794801</v>
+        <v>72.266001</v>
       </c>
       <c r="H2">
-        <v>314.384403</v>
+        <v>216.798003</v>
       </c>
       <c r="I2">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="J2">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>505.8908573333333</v>
+        <v>568.5612486666666</v>
       </c>
       <c r="N2">
-        <v>1517.672572</v>
+        <v>1705.683746</v>
       </c>
       <c r="O2">
-        <v>0.7018211771568338</v>
+        <v>0.6737621253161296</v>
       </c>
       <c r="P2">
-        <v>0.7018211771568338</v>
+        <v>0.6737621253161296</v>
       </c>
       <c r="Q2">
-        <v>53014.73172196606</v>
+        <v>41087.64776470658</v>
       </c>
       <c r="R2">
-        <v>477132.5854976946</v>
+        <v>369788.8298823592</v>
       </c>
       <c r="S2">
-        <v>0.2717747198964088</v>
+        <v>0.198736398233637</v>
       </c>
       <c r="T2">
-        <v>0.2717747198964088</v>
+        <v>0.198736398233637</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>104.794801</v>
+        <v>72.266001</v>
       </c>
       <c r="H3">
-        <v>314.384403</v>
+        <v>216.798003</v>
       </c>
       <c r="I3">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="J3">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.00803399999999</v>
+        <v>88.00803400000001</v>
       </c>
       <c r="N3">
         <v>264.024102</v>
       </c>
       <c r="O3">
-        <v>0.1220933352041997</v>
+        <v>0.1042921587987053</v>
       </c>
       <c r="P3">
-        <v>0.1220933352041997</v>
+        <v>0.1042921587987053</v>
       </c>
       <c r="Q3">
-        <v>9222.784409431235</v>
+        <v>6359.988673052035</v>
       </c>
       <c r="R3">
-        <v>83005.0596848811</v>
+        <v>57239.89805746831</v>
       </c>
       <c r="S3">
-        <v>0.04727968185679966</v>
+        <v>0.03076256029372423</v>
       </c>
       <c r="T3">
-        <v>0.04727968185679966</v>
+        <v>0.03076256029372423</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>104.794801</v>
+        <v>72.266001</v>
       </c>
       <c r="H4">
-        <v>314.384403</v>
+        <v>216.798003</v>
       </c>
       <c r="I4">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="J4">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>126.926974</v>
+        <v>187.2912243333334</v>
       </c>
       <c r="N4">
-        <v>380.780922</v>
+        <v>561.8736730000001</v>
       </c>
       <c r="O4">
-        <v>0.1760854876389666</v>
+        <v>0.2219457158851651</v>
       </c>
       <c r="P4">
-        <v>0.1760854876389665</v>
+        <v>0.2219457158851651</v>
       </c>
       <c r="Q4">
-        <v>13301.28698186218</v>
+        <v>13534.78780496389</v>
       </c>
       <c r="R4">
-        <v>119711.5828367596</v>
+        <v>121813.090244675</v>
       </c>
       <c r="S4">
-        <v>0.06818771738232766</v>
+        <v>0.06546626846634931</v>
       </c>
       <c r="T4">
-        <v>0.06818771738232764</v>
+        <v>0.06546626846634931</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>136.674446</v>
       </c>
       <c r="H5">
-        <v>410.0233380000001</v>
+        <v>410.023338</v>
       </c>
       <c r="I5">
-        <v>0.5050451128841345</v>
+        <v>0.5578585839920717</v>
       </c>
       <c r="J5">
-        <v>0.5050451128841343</v>
+        <v>0.5578585839920718</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>505.8908573333333</v>
+        <v>568.5612486666666</v>
       </c>
       <c r="N5">
-        <v>1517.672572</v>
+        <v>1705.683746</v>
       </c>
       <c r="O5">
-        <v>0.7018211771568338</v>
+        <v>0.6737621253161296</v>
       </c>
       <c r="P5">
-        <v>0.7018211771568338</v>
+        <v>0.6737621253161296</v>
       </c>
       <c r="Q5">
-        <v>69142.35266249838</v>
+        <v>77707.7936785849</v>
       </c>
       <c r="R5">
-        <v>622281.1739624854</v>
+        <v>699370.1431072641</v>
       </c>
       <c r="S5">
-        <v>0.3544513556416493</v>
+        <v>0.3758639851763448</v>
       </c>
       <c r="T5">
-        <v>0.3544513556416491</v>
+        <v>0.3758639851763448</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>136.674446</v>
       </c>
       <c r="H6">
-        <v>410.0233380000001</v>
+        <v>410.023338</v>
       </c>
       <c r="I6">
-        <v>0.5050451128841345</v>
+        <v>0.5578585839920717</v>
       </c>
       <c r="J6">
-        <v>0.5050451128841343</v>
+        <v>0.5578585839920718</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.00803399999999</v>
+        <v>88.00803400000001</v>
       </c>
       <c r="N6">
         <v>264.024102</v>
       </c>
       <c r="O6">
-        <v>0.1220933352041997</v>
+        <v>0.1042921587987053</v>
       </c>
       <c r="P6">
-        <v>0.1220933352041997</v>
+        <v>0.1042921587987053</v>
       </c>
       <c r="Q6">
-        <v>12028.44929049917</v>
+        <v>12028.44929049916</v>
       </c>
       <c r="R6">
         <v>108256.0436144925</v>
       </c>
       <c r="S6">
-        <v>0.06166264226060552</v>
+        <v>0.05818027602892204</v>
       </c>
       <c r="T6">
-        <v>0.06166264226060551</v>
+        <v>0.05818027602892206</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>136.674446</v>
       </c>
       <c r="H7">
-        <v>410.0233380000001</v>
+        <v>410.023338</v>
       </c>
       <c r="I7">
-        <v>0.5050451128841345</v>
+        <v>0.5578585839920717</v>
       </c>
       <c r="J7">
-        <v>0.5050451128841343</v>
+        <v>0.5578585839920718</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>126.926974</v>
+        <v>187.2912243333334</v>
       </c>
       <c r="N7">
-        <v>380.780922</v>
+        <v>561.8736730000001</v>
       </c>
       <c r="O7">
-        <v>0.1760854876389666</v>
+        <v>0.2219457158851651</v>
       </c>
       <c r="P7">
-        <v>0.1760854876389665</v>
+        <v>0.2219457158851651</v>
       </c>
       <c r="Q7">
-        <v>17347.67385390641</v>
+        <v>25597.92432642006</v>
       </c>
       <c r="R7">
-        <v>156129.0646851577</v>
+        <v>230381.3189377805</v>
       </c>
       <c r="S7">
-        <v>0.08893111498187972</v>
+        <v>0.1238143227868048</v>
       </c>
       <c r="T7">
-        <v>0.08893111498187969</v>
+        <v>0.1238143227868049</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.14904533333333</v>
+        <v>36.057927</v>
       </c>
       <c r="H8">
-        <v>87.447136</v>
+        <v>108.173781</v>
       </c>
       <c r="I8">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="J8">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>505.8908573333333</v>
+        <v>568.5612486666666</v>
       </c>
       <c r="N8">
-        <v>1517.672572</v>
+        <v>1705.683746</v>
       </c>
       <c r="O8">
-        <v>0.7018211771568338</v>
+        <v>0.6737621253161296</v>
       </c>
       <c r="P8">
-        <v>0.7018211771568338</v>
+        <v>0.6737621253161296</v>
       </c>
       <c r="Q8">
-        <v>14746.2355341282</v>
+        <v>20501.13999945151</v>
       </c>
       <c r="R8">
-        <v>132716.1198071538</v>
+        <v>184510.2599950636</v>
       </c>
       <c r="S8">
-        <v>0.07559510161877581</v>
+        <v>0.09916174190614771</v>
       </c>
       <c r="T8">
-        <v>0.07559510161877581</v>
+        <v>0.09916174190614771</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.14904533333333</v>
+        <v>36.057927</v>
       </c>
       <c r="H9">
-        <v>87.447136</v>
+        <v>108.173781</v>
       </c>
       <c r="I9">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="J9">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>88.00803399999999</v>
+        <v>88.00803400000001</v>
       </c>
       <c r="N9">
         <v>264.024102</v>
       </c>
       <c r="O9">
-        <v>0.1220933352041997</v>
+        <v>0.1042921587987053</v>
       </c>
       <c r="P9">
-        <v>0.1220933352041997</v>
+        <v>0.1042921587987053</v>
       </c>
       <c r="Q9">
-        <v>2565.350172763541</v>
+        <v>3173.387265385518</v>
       </c>
       <c r="R9">
-        <v>23088.15155487187</v>
+        <v>28560.48538846966</v>
       </c>
       <c r="S9">
-        <v>0.01315101108679457</v>
+        <v>0.01534932247605907</v>
       </c>
       <c r="T9">
-        <v>0.01315101108679457</v>
+        <v>0.01534932247605907</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.14904533333333</v>
+        <v>36.057927</v>
       </c>
       <c r="H10">
-        <v>87.447136</v>
+        <v>108.173781</v>
       </c>
       <c r="I10">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="J10">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>126.926974</v>
+        <v>187.2912243333334</v>
       </c>
       <c r="N10">
-        <v>380.780922</v>
+        <v>561.8736730000001</v>
       </c>
       <c r="O10">
-        <v>0.1760854876389666</v>
+        <v>0.2219457158851651</v>
       </c>
       <c r="P10">
-        <v>0.1760854876389665</v>
+        <v>0.2219457158851651</v>
       </c>
       <c r="Q10">
-        <v>3699.800119148822</v>
+        <v>6753.333294751958</v>
       </c>
       <c r="R10">
-        <v>33298.2010723394</v>
+        <v>60779.99965276761</v>
       </c>
       <c r="S10">
-        <v>0.01896665527475919</v>
+        <v>0.03266512463201092</v>
       </c>
       <c r="T10">
-        <v>0.01896665527475919</v>
+        <v>0.03266512463201091</v>
       </c>
     </row>
   </sheetData>
